--- a/data/unchecked/manual_collect/china/fujian/fujianCaseStatistics_20200429.xlsx
+++ b/data/unchecked/manual_collect/china/fujian/fujianCaseStatistics_20200429.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xenosaga\Desktop\ncov\COVID-19\data\unchecked\manual_collect\china\fujian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6B56D7-8C3E-4503-A7B5-76172DCC0902}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696165B6-A329-48E4-9A43-51CE96C45C12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10853,9 +10853,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AE85" sqref="AE85"/>
+      <selection pane="bottomLeft" activeCell="L95" sqref="L95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="15" customHeight="1"/>
@@ -11066,7 +11066,7 @@
       <c r="I2" s="19"/>
       <c r="J2" s="15"/>
       <c r="K2" s="19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2" s="19"/>
       <c r="M2" s="15"/>
@@ -18199,7 +18199,6 @@
       <c r="C92" s="18"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AT91" xr:uid="{71B1E3F6-B60E-42A5-917F-678FA418B0A8}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="7">
     <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P47:Q47 P48:R51 P32:P45 Q41:Q45 R32:R40 I29:L31 I32:K45 S29:S51 P46:R46 P2:R31 S2:X28 I77:I84 I46:L76 K2:O2 K77:L84 I2 I3:O28 T29:X1048576 M29:O1048576 P52:S1048576 I85:L1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
